--- a/Random Forest Regressor/plot_infos_RFR_sg.xlsx
+++ b/Random Forest Regressor/plot_infos_RFR_sg.xlsx
@@ -500,7 +500,7 @@
         <v>0.9638450333392931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9867046614165664</v>
+        <v>0.9867046614165668</v>
       </c>
       <c r="E2" t="n">
         <v>0.5052470046564215</v>
@@ -515,10 +515,10 @@
         <v>19.0144594087518</v>
       </c>
       <c r="I2" t="n">
-        <v>1.111111100400403</v>
+        <v>1.111111100400402</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.54907921516984</v>
+        <v>-1.549079215169838</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>0.7308863514310745</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8652811866278868</v>
+        <v>0.8652811866278869</v>
       </c>
       <c r="E3" t="n">
         <v>1.378439237740589</v>
@@ -572,7 +572,7 @@
         <v>0.7421882875694195</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8630006593683524</v>
+        <v>0.8630006593683521</v>
       </c>
       <c r="E4" t="n">
         <v>1.067196805108286</v>
@@ -608,7 +608,7 @@
         <v>0.9271843388850682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.976497998253032</v>
+        <v>0.9764979982530311</v>
       </c>
       <c r="E5" t="n">
         <v>0.1582953875360196</v>
@@ -644,7 +644,7 @@
         <v>0.4813547708441941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6959252732323948</v>
+        <v>0.6959252732323945</v>
       </c>
       <c r="E6" t="n">
         <v>0.4224653121337301</v>
@@ -659,10 +659,10 @@
         <v>72.01702778897544</v>
       </c>
       <c r="I6" t="n">
-        <v>1.070826722173276</v>
+        <v>1.070826722173275</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.09763906658254418</v>
+        <v>-0.09763906658254395</v>
       </c>
     </row>
     <row r="7">
@@ -680,7 +680,7 @@
         <v>0.6557560325878963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8236694206440432</v>
+        <v>0.8236694206440434</v>
       </c>
       <c r="E7" t="n">
         <v>0.2563344004827158</v>
@@ -695,10 +695,10 @@
         <v>58.6723075574929</v>
       </c>
       <c r="I7" t="n">
-        <v>1.030355488619704</v>
+        <v>1.030355488619703</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1003031924857294</v>
+        <v>-0.1003031924857292</v>
       </c>
     </row>
     <row r="8">
@@ -716,7 +716,7 @@
         <v>0.9115833959264795</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9777302713842219</v>
+        <v>0.977730271384222</v>
       </c>
       <c r="E8" t="n">
         <v>0.09186967781960821</v>
@@ -752,7 +752,7 @@
         <v>0.3719634333194889</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6122182033201031</v>
+        <v>0.612218203320103</v>
       </c>
       <c r="E9" t="n">
         <v>0.2448486667347522</v>
@@ -803,10 +803,10 @@
         <v>63.92114688740585</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9799266815877219</v>
+        <v>0.9799266815877216</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07251239522480279</v>
+        <v>0.07251239522480413</v>
       </c>
     </row>
     <row r="11">
@@ -824,7 +824,7 @@
         <v>0.9220879275795336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9790607187520122</v>
+        <v>0.9790607187520118</v>
       </c>
       <c r="E11" t="n">
         <v>28.68637694342123</v>
@@ -860,7 +860,7 @@
         <v>0.4176079348399184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6492141949873469</v>
+        <v>0.6492141949873468</v>
       </c>
       <c r="E12" t="n">
         <v>78.42978910238826</v>
@@ -896,7 +896,7 @@
         <v>0.5301243042241566</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7362552092337254</v>
+        <v>0.7362552092337253</v>
       </c>
       <c r="E13" t="n">
         <v>52.95389380632566</v>
@@ -932,7 +932,7 @@
         <v>0.9359877597620299</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9750954362676766</v>
+        <v>0.9750954362676769</v>
       </c>
       <c r="E14" t="n">
         <v>0.8137750936343784</v>
@@ -950,7 +950,7 @@
         <v>1.142648531005042</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.181272931288612</v>
+        <v>-2.181272931288609</v>
       </c>
     </row>
     <row r="15">
@@ -968,7 +968,7 @@
         <v>0.6323652516520099</v>
       </c>
       <c r="D15" t="n">
-        <v>0.801148718486573</v>
+        <v>0.8011487184865729</v>
       </c>
       <c r="E15" t="n">
         <v>1.950209004274052</v>
